--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\domains\indplaner\static\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6ACCF7-BA5C-430F-80E7-D60FF6BE9CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F776B2B-4A9D-4617-A676-0CAF044F1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2295" windowWidth="21615" windowHeight="11385" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23925" windowHeight="14205" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Маршрутная карта</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Фрезерная</t>
   </si>
   <si>
-    <t>ТРЦР.713645.004</t>
-  </si>
-  <si>
     <t>Круг 70-В1 ГОСТ 2590-2006        08Х18Н10Т ГОСТ 5949-2018</t>
   </si>
   <si>
@@ -120,7 +117,7 @@
     <t>Срок изготовления</t>
   </si>
   <si>
-    <t>Деталь (шфир, наименование)</t>
+    <t>Деталь (шифр, наименование)</t>
   </si>
 </sst>
 </file>
@@ -255,40 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -299,9 +263,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -463,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +616,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,93 +636,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9">
+      <c r="F5" s="17"/>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -735,10 +730,10 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
@@ -747,178 +742,178 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:1024">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:1024">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
       <c r="AMB22"/>
@@ -1186,26 +1181,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1222,6 +1197,26 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F776B2B-4A9D-4617-A676-0CAF044F1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417A20D-FCA5-4DEA-A0CB-46EEE9BDB9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23925" windowHeight="14205" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +163,20 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="GOST type A"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="GOST type A"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -238,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -252,11 +266,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -264,36 +298,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,7 +633,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,61 +653,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="12" t="s">
         <v>25</v>
       </c>
@@ -701,15 +718,15 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="12">
         <v>1</v>
       </c>
@@ -717,10 +734,10 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -730,10 +747,10 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
@@ -742,178 +759,178 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:1024">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:1024">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
       <c r="AMB22"/>
@@ -1181,6 +1198,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1197,26 +1234,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417A20D-FCA5-4DEA-A0CB-46EEE9BDB9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFEB83B-4E5B-4691-B96E-EF0A18AA8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="GOST type A"/>
       <family val="2"/>
@@ -266,48 +266,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -633,7 +633,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,30 +653,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
@@ -687,27 +687,27 @@
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="12" t="s">
         <v>25</v>
       </c>
@@ -718,15 +718,15 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="12">
         <v>1</v>
       </c>
@@ -734,10 +734,10 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -747,10 +747,10 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
@@ -759,178 +759,178 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:1024">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:1024">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
       <c r="AMB22"/>
@@ -1198,26 +1198,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1234,6 +1214,26 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFEB83B-4E5B-4691-B96E-EF0A18AA8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB0D98-8FFC-438D-BE1C-FFE30084C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
+    <workbookView xWindow="9825" yWindow="3705" windowWidth="23925" windowHeight="14205" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -166,14 +166,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <i/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="GOST type A"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="GOST type A"/>
       <family val="2"/>
@@ -266,6 +267,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -276,41 +293,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,7 +634,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,91 +654,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="12">
+      <c r="F5" s="8"/>
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -747,10 +748,10 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
@@ -759,178 +760,178 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:1024">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:1024">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
       <c r="AMB22"/>
@@ -1198,6 +1199,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1214,26 +1235,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB0D98-8FFC-438D-BE1C-FFE30084C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D10388-E1B5-40B7-A679-825F8DF560AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9825" yWindow="3705" windowWidth="23925" windowHeight="14205" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="GOST type A"/>
@@ -174,7 +173,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="GOST type A"/>
       <family val="2"/>
@@ -267,52 +266,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +633,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,91 +653,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="18">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15">
         <v>1</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -748,10 +747,10 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
@@ -760,178 +759,178 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:1024">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:1024">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
       <c r="AMB22"/>
@@ -1199,26 +1198,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1235,6 +1214,26 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D10388-E1B5-40B7-A679-825F8DF560AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503CFFB8-451E-41A3-B891-1131ED0707BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +178,14 @@
       <name val="GOST type A"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,6 +274,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -276,42 +315,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +641,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,80 +661,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="15">
         <v>1</v>
       </c>
@@ -734,10 +742,10 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -747,10 +755,10 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
@@ -759,178 +767,178 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:1024">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:1024">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
       <c r="AMB22"/>
@@ -1198,6 +1206,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1214,26 +1242,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503CFFB8-451E-41A3-B891-1131ED0707BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D644174-2FF7-4954-8640-1A91CB67B429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,35 +132,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial1"/>
       <charset val="204"/>
@@ -181,6 +153,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -260,66 +276,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +660,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,20 +680,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
@@ -686,261 +705,274 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="31.5">
+      <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="15">
+      <c r="F5" s="11"/>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:1024">
-      <c r="A18" s="16" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:1024" ht="15.75">
+      <c r="A18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:1024">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:1024" ht="15.75">
+      <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:1024">
-      <c r="A20" s="16" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:1024" ht="15.75">
+      <c r="A20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:1024">
-      <c r="E21" s="17" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:1024" ht="15.75">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="AMB22"/>
       <c r="AMC22"/>
       <c r="AMD22"/>
@@ -1206,26 +1238,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1242,6 +1254,26 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">

--- a/static/xls/mk.xlsx
+++ b/static/xls/mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D644174-2FF7-4954-8640-1A91CB67B429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A4B09D-FF2A-498A-AD90-1036AD170736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25920" windowHeight="14385" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Маршрутная карта</t>
   </si>
@@ -102,16 +102,7 @@
     <t>Сверлильная</t>
   </si>
   <si>
-    <t>Втулка</t>
-  </si>
-  <si>
     <t>Фрезерная</t>
-  </si>
-  <si>
-    <t>Круг 70-В1 ГОСТ 2590-2006        08Х18Н10Т ГОСТ 5949-2018</t>
-  </si>
-  <si>
-    <t>Ø70×71</t>
   </si>
   <si>
     <t>Срок изготовления</t>
@@ -281,6 +272,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,52 +316,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -660,7 +651,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,299 +671,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="31.5">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="31.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:1024" ht="4.7" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:1024" ht="15.75">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:1024" ht="15.75">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:1024" ht="15.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:1024" ht="15.75">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:1024" ht="22.9" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="AMB22"/>
       <c r="AMC22"/>
       <c r="AMD22"/>
@@ -1238,6 +1219,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1254,34 +1255,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">
-      <formula1>"Белоусов А.М.,Иванов Р.Н.,Румянцев Г.М.,Ушакова А. А.,Сваричев В.В."</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="A7:A14" xr:uid="{5231E21C-1D5B-4964-85D0-EA405395408E}">
       <formula1>"Заготовительная,Плазменная резка,Токарная,Сверлильная,Фрезерная,Эл.Эрозия,Гальваника,Термическая,Слесарная,Контрольная,Покрасочная,Вальцовка,Гибка,Рубка,Сварка,Резьбонарезная,Координатно-расточная,Моечная"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" sqref="H21:I21" xr:uid="{BFBF901C-A852-4733-B764-A4B5F870464F}"/>
   </dataValidations>
   <pageMargins left="0.19645669291338602" right="0.19645669291338602" top="0.55905511811023612" bottom="0.56299212598425208" header="0.16535433070866104" footer="0.16929133858267709"/>
   <pageSetup paperSize="9" scale="97" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
